--- a/case_13_7_data.xlsx
+++ b/case_13_7_data.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49412\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\49412\Downloads\IEGDS_Restoration-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0B8A4E-DF5F-4015-9B86-6E61DAF883F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0EB8FB-FEB8-4118-81AE-1C1EDEFFCBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Power Network" sheetId="1" r:id="rId1"/>
     <sheet name="Gas Network" sheetId="2" r:id="rId2"/>
+    <sheet name="Crews" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -94,9 +95,6 @@
     <t>conversion rate( MW/(Sm3/h) )</t>
   </si>
   <si>
-    <t>repair time</t>
-  </si>
-  <si>
     <t>gas inactive branch</t>
   </si>
   <si>
@@ -115,27 +113,18 @@
     <t>max(Sm3/h)</t>
   </si>
   <si>
-    <t>ploadg</t>
-  </si>
-  <si>
     <t>power node</t>
   </si>
   <si>
     <t>compressor number</t>
   </si>
   <si>
-    <t>gloadp</t>
-  </si>
-  <si>
     <t>gas node</t>
   </si>
   <si>
     <t>generator number</t>
   </si>
   <si>
-    <t>Power system crew</t>
-  </si>
-  <si>
     <t xml:space="preserve">no. </t>
   </si>
   <si>
@@ -143,9 +132,6 @@
   </si>
   <si>
     <t>crew number</t>
-  </si>
-  <si>
-    <t>gas system crew</t>
   </si>
   <si>
     <t>no.</t>
@@ -188,6 +174,26 @@
   </si>
   <si>
     <t>Capacity (Sm3/h/bar)^2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair time (h)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>power crew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gas  crew</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g2p data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2g data</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -255,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -272,6 +278,7 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -568,7 +575,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -577,19 +584,19 @@
     </row>
     <row r="2" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1401,15 +1408,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC2612B-27F1-435E-BD4D-20A8820D6DCC}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1424,7 +1431,7 @@
     </row>
     <row r="2" spans="1:11" ht="70" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>14</v>
@@ -1606,7 +1613,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1638,7 +1645,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I11" s="3"/>
     </row>
@@ -1671,7 +1678,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1690,10 +1697,10 @@
         <v>19</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>3</v>
@@ -1702,7 +1709,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1834,7 +1841,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1847,13 +1854,13 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1898,7 +1905,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1906,10 +1913,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1926,7 +1933,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1934,10 +1941,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1963,96 +1970,10 @@
       <c r="D33" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>1</v>
-      </c>
-      <c r="B37" s="1">
-        <v>-3</v>
-      </c>
-      <c r="C37" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>2</v>
-      </c>
-      <c r="B38" s="1">
-        <v>3</v>
-      </c>
-      <c r="C38" s="1">
-        <v>-1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
@@ -2064,4 +1985,109 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EA6231-7C91-4607-86A9-C7D9585E85D9}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>